--- a/data/trans_dic/IP18A06-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/IP18A06-Habitat-trans_dic.xlsx
@@ -646,7 +646,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>10/50</t>
+          <t>Menos de 2</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -656,62 +656,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>1,87%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0,95%</t>
+          <t>8,6%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>2,02%</t>
+          <t>6,53%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>3,65%</t>
+          <t>16,39%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>1,11%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>1,93%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>2,5%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>0,54%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>1,5%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>1,43%</t>
+          <t>4,58%</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>2,25%</t>
+          <t>3,6%</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>2,49%</t>
+          <t>8,29%</t>
         </is>
       </c>
     </row>
@@ -724,62 +724,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0,73; 4,07</t>
+          <t>0; 6,36</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0,31; 2,83</t>
+          <t>0,0; 25,27</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0,85; 4,24</t>
+          <t>0,0; 26,18</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0,74; 10,43</t>
+          <t>0,0; 72,28</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>0,35; 3,04</t>
+          <t>0; 7,32</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>0,71; 4,02</t>
+          <t>0; 7,61</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>1,21; 4,73</t>
+          <t>0; 8,27</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 3,65</t>
+          <t>0; 23,25</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>0,74; 2,92</t>
+          <t>0; 3,48</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>0,68; 2,66</t>
+          <t>0,0; 15,9</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>1,32; 3,69</t>
+          <t>0,0; 13,78</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>0,66; 7,08</t>
+          <t>0,0; 41,47</t>
         </is>
       </c>
     </row>
@@ -926,7 +926,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Capitales</t>
+          <t>10/50</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -936,62 +936,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>1,19%</t>
+          <t>1,87%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>2,27%</t>
+          <t>0,95%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>2,74%</t>
+          <t>2,02%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>11,58%</t>
+          <t>3,65%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>2,81%</t>
+          <t>1,11%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>1,48%</t>
+          <t>1,93%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>1,66%</t>
+          <t>2,5%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>8,68%</t>
+          <t>0,54%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>2,03%</t>
+          <t>1,5%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>1,87%</t>
+          <t>1,43%</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>2,19%</t>
+          <t>2,25%</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>10,1%</t>
+          <t>2,49%</t>
         </is>
       </c>
     </row>
@@ -1004,69 +1004,69 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0,37; 3,32</t>
+          <t>0,73; 4,07</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>1,01; 5,23</t>
+          <t>0,31; 2,83</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>1,13; 5,23</t>
+          <t>0,85; 4,24</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>4,21; 23,83</t>
+          <t>0,74; 10,43</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>1,2; 5,23</t>
+          <t>0,35; 3,04</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>0,37; 3,64</t>
+          <t>0,71; 4,02</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>0,43; 3,75</t>
+          <t>1,21; 4,73</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>2,25; 20,64</t>
+          <t>0,0; 3,65</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>1,02; 3,71</t>
+          <t>0,74; 2,92</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>0,95; 3,49</t>
+          <t>0,68; 2,66</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>1,13; 3,78</t>
+          <t>1,32; 3,69</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>5,19; 17,73</t>
+          <t>0,66; 7,08</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Menos de 2</t>
+          <t>mas de 50</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -1076,62 +1076,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,81%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>8,6%</t>
+          <t>1,67%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>6,53%</t>
+          <t>0,82%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>16,39%</t>
+          <t>3,13%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,35%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,46%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,3%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>8,14%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,07%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>4,58%</t>
+          <t>1,1%</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>3,6%</t>
+          <t>1,53%</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>8,29%</t>
+          <t>5,43%</t>
         </is>
       </c>
     </row>
@@ -1144,69 +1144,69 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0; 6,36</t>
+          <t>0,48; 4,21</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 25,27</t>
+          <t>0,42; 4,15</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 26,18</t>
+          <t>0,0; 2,56</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 72,28</t>
+          <t>0,0; 13,68</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>0; 7,32</t>
+          <t>0,89; 5,13</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>0; 7,61</t>
+          <t>0,0; 2,29</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>0; 8,27</t>
+          <t>0,89; 5,44</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>0; 23,25</t>
+          <t>1,69; 21,11</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>0; 3,48</t>
+          <t>1,11; 3,79</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 15,9</t>
+          <t>0,43; 2,47</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 13,78</t>
+          <t>0,61; 2,94</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 41,47</t>
+          <t>1,56; 13,66</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>mas de 50</t>
+          <t>Capitales</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1216,62 +1216,62 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>1,81%</t>
+          <t>1,19%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>1,67%</t>
+          <t>2,27%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>0,82%</t>
+          <t>2,74%</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>3,13%</t>
+          <t>11,58%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>2,35%</t>
+          <t>2,81%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>0,46%</t>
+          <t>1,48%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>2,3%</t>
+          <t>1,66%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>8,14%</t>
+          <t>8,68%</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>2,07%</t>
+          <t>2,03%</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>1,1%</t>
+          <t>1,87%</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>1,53%</t>
+          <t>2,19%</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
         <is>
-          <t>5,43%</t>
+          <t>10,1%</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1284,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>0,48; 4,21</t>
+          <t>0,37; 3,32</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>0,42; 4,15</t>
+          <t>1,01; 5,23</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,56</t>
+          <t>1,13; 5,23</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 13,68</t>
+          <t>4,21; 23,83</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>0,89; 5,13</t>
+          <t>1,2; 5,23</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,29</t>
+          <t>0,37; 3,64</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>0,89; 5,44</t>
+          <t>0,43; 3,75</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>1,69; 21,11</t>
+          <t>2,25; 20,64</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>1,11; 3,79</t>
+          <t>1,02; 3,71</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>0,43; 2,47</t>
+          <t>0,95; 3,49</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>0,61; 2,94</t>
+          <t>1,13; 3,78</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>1,56; 13,66</t>
+          <t>5,19; 17,73</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/IP18A06-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/IP18A06-Habitat-trans_dic.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N15"/>
+  <dimension ref="A1:N16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -729,12 +729,12 @@
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 25,27</t>
+          <t>0,0; 28,48</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 26,18</t>
+          <t>0,0; 26,12</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -769,12 +769,12 @@
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 15,9</t>
+          <t>0,0; 14,12</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 13,78</t>
+          <t>0,0; 14,07</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
@@ -864,12 +864,12 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0,56; 5,2</t>
+          <t>0,56; 5,4</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>1,69; 7,73</t>
+          <t>1,4; 7,76</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
@@ -879,47 +879,47 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 15,71</t>
+          <t>0,0; 16,74</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 3,14</t>
+          <t>0,0; 3,17</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 3,19</t>
+          <t>0,0; 3,3</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>0,64; 5,69</t>
+          <t>0,63; 6,22</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 44,39</t>
+          <t>0,0; 38,84</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>0,59; 3,2</t>
+          <t>0,3; 3,32</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>0,93; 4,46</t>
+          <t>0,96; 4,36</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>0,31; 3,07</t>
+          <t>0,3; 2,63</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 19,6</t>
+          <t>0,0; 18,41</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1004,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0,73; 4,07</t>
+          <t>0,73; 4,15</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0,31; 2,83</t>
+          <t>0,31; 2,54</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0,85; 4,24</t>
+          <t>0,66; 4,06</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0,74; 10,43</t>
+          <t>0,75; 11,83</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>0,35; 3,04</t>
+          <t>0,35; 3,0</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>0,71; 4,02</t>
+          <t>0,72; 4,24</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>1,21; 4,73</t>
+          <t>1,24; 4,72</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 3,65</t>
+          <t>0,0; 2,55</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>0,74; 2,92</t>
+          <t>0,73; 2,8</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>0,68; 2,66</t>
+          <t>0,69; 2,54</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>1,32; 3,69</t>
+          <t>1,27; 3,85</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>0,66; 7,08</t>
+          <t>0,68; 6,75</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1144,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0,48; 4,21</t>
+          <t>0,48; 4,45</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>0,42; 4,15</t>
+          <t>0,41; 3,77</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,56</t>
+          <t>0,0; 2,72</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 13,68</t>
+          <t>0,0; 14,6</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>0,89; 5,13</t>
+          <t>0,85; 5,23</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,29</t>
+          <t>0,0; 2,31</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>0,89; 5,44</t>
+          <t>0,81; 4,99</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>1,69; 21,11</t>
+          <t>1,6; 22,23</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>1,11; 3,79</t>
+          <t>1,09; 3,89</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>0,43; 2,47</t>
+          <t>0,23; 2,43</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>0,61; 2,94</t>
+          <t>0,66; 2,94</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>1,56; 13,66</t>
+          <t>1,65; 13,94</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1284,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>0,37; 3,32</t>
+          <t>0,37; 3,13</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>1,01; 5,23</t>
+          <t>0,89; 5,16</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>1,13; 5,23</t>
+          <t>1,17; 5,53</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>4,21; 23,83</t>
+          <t>4,53; 25,85</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>1,2; 5,23</t>
+          <t>1,2; 5,33</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>0,37; 3,64</t>
+          <t>0,37; 3,72</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>0,43; 3,75</t>
+          <t>0,42; 4,03</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>2,25; 20,64</t>
+          <t>2,22; 21,48</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>1,02; 3,71</t>
+          <t>1,01; 3,76</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>0,95; 3,49</t>
+          <t>0,95; 3,44</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>1,13; 3,78</t>
+          <t>1,13; 3,66</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>5,19; 17,73</t>
+          <t>4,64; 17,61</t>
         </is>
       </c>
     </row>
@@ -1424,62 +1424,69 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>0,98; 2,54</t>
+          <t>0,95; 2,63</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>1,4; 3,38</t>
+          <t>1,42; 3,33</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>1,1; 2,81</t>
+          <t>1,1; 2,8</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>2,81; 9,41</t>
+          <t>2,93; 9,5</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>1,06; 2,79</t>
+          <t>1,07; 2,92</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>0,62; 2,12</t>
+          <t>0,66; 2,08</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>1,24; 3,07</t>
+          <t>1,33; 3,14</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>2,47; 11,04</t>
+          <t>2,77; 10,99</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>1,17; 2,41</t>
+          <t>1,19; 2,4</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>1,21; 2,36</t>
+          <t>1,27; 2,45</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>1,45; 2,59</t>
+          <t>1,34; 2,59</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>3,55; 8,62</t>
+          <t>3,53; 8,58</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/IP18A06-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/IP18A06-Habitat-trans_dic.xlsx
@@ -578,7 +578,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -598,7 +598,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">
@@ -618,7 +618,7 @@
       </c>
       <c r="M2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="N2" s="3" t="inlineStr">
@@ -646,7 +646,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Menos de 2</t>
+          <t>&lt;2.000hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -729,17 +729,17 @@
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 28,48</t>
+          <t>0,0; 27,83</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 26,12</t>
+          <t>0,0; 21,71</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 72,28</t>
+          <t>0,0; 58,84</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -769,24 +769,24 @@
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 14,12</t>
+          <t>0,0; 15,87</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 14,07</t>
+          <t>0,0; 11,72</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 41,47</t>
+          <t>0,0; 39,88</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2/10</t>
+          <t>2-10.000 hab</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -864,12 +864,12 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0,56; 5,4</t>
+          <t>0,56; 5,31</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>1,4; 7,76</t>
+          <t>1,4; 8,1</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
@@ -879,54 +879,54 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 16,74</t>
+          <t>0,0; 17,46</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 3,17</t>
+          <t>0,0; 3,15</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 3,3</t>
+          <t>0,0; 3,34</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>0,63; 6,22</t>
+          <t>0,64; 6,19</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 38,84</t>
+          <t>0,0; 37,66</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>0,3; 3,32</t>
+          <t>0,3; 2,88</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>0,96; 4,36</t>
+          <t>1,02; 4,7</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>0,3; 2,63</t>
+          <t>0,3; 2,87</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 18,41</t>
+          <t>0,0; 21,23</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10/50</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -1004,69 +1004,69 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0,73; 4,15</t>
+          <t>0,73; 4,08</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0,31; 2,54</t>
+          <t>0,31; 2,83</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0,66; 4,06</t>
+          <t>0,68; 4,14</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0,75; 11,83</t>
+          <t>0,76; 10,99</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>0,35; 3,0</t>
+          <t>0,35; 3,17</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>0,72; 4,24</t>
+          <t>0,76; 4,07</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>1,24; 4,72</t>
+          <t>1,21; 4,93</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,55</t>
+          <t>0,0; 3,16</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>0,73; 2,8</t>
+          <t>0,59; 2,98</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>0,69; 2,54</t>
+          <t>0,63; 2,69</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>1,27; 3,85</t>
+          <t>1,23; 3,69</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>0,68; 6,75</t>
+          <t>0,67; 6,81</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>mas de 50</t>
+          <t>&gt;50.000hab</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -1144,62 +1144,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0,48; 4,45</t>
+          <t>0,48; 4,37</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>0,41; 3,77</t>
+          <t>0,42; 3,82</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,72</t>
+          <t>0,0; 2,88</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 14,6</t>
+          <t>0,0; 16,79</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>0,85; 5,23</t>
+          <t>0,92; 5,24</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,31</t>
+          <t>0,0; 2,34</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>0,81; 4,99</t>
+          <t>0,84; 5,35</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>1,6; 22,23</t>
+          <t>2,66; 22,45</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>1,09; 3,89</t>
+          <t>1,08; 3,8</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>0,23; 2,43</t>
+          <t>0,43; 2,43</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>0,66; 2,94</t>
+          <t>0,67; 3,15</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>1,65; 13,94</t>
+          <t>1,56; 12,68</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1284,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>0,37; 3,13</t>
+          <t>0,37; 3,2</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>0,89; 5,16</t>
+          <t>1,05; 4,74</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>1,17; 5,53</t>
+          <t>1,18; 5,16</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>4,53; 25,85</t>
+          <t>4,21; 26,07</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>1,2; 5,33</t>
+          <t>1,19; 5,32</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>0,37; 3,72</t>
+          <t>0,37; 3,36</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>0,42; 4,03</t>
+          <t>0,42; 3,79</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>2,22; 21,48</t>
+          <t>2,27; 19,46</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>1,01; 3,76</t>
+          <t>0,99; 3,51</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>0,95; 3,44</t>
+          <t>0,94; 3,27</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>1,13; 3,66</t>
+          <t>1,15; 3,86</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>4,64; 17,61</t>
+          <t>5,19; 18,66</t>
         </is>
       </c>
     </row>
@@ -1424,62 +1424,62 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>0,95; 2,63</t>
+          <t>0,9; 2,56</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>1,42; 3,33</t>
+          <t>1,39; 3,45</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>1,1; 2,8</t>
+          <t>1,11; 2,89</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>2,93; 9,5</t>
+          <t>3,01; 9,88</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>1,07; 2,92</t>
+          <t>1,03; 2,86</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>0,66; 2,08</t>
+          <t>0,63; 2,0</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>1,33; 3,14</t>
+          <t>1,26; 3,11</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>2,77; 10,99</t>
+          <t>2,56; 10,42</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>1,19; 2,4</t>
+          <t>1,18; 2,33</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>1,27; 2,45</t>
+          <t>1,18; 2,45</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>1,34; 2,59</t>
+          <t>1,42; 2,64</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>3,53; 8,58</t>
+          <t>3,44; 8,56</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/IP18A06-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/IP18A06-Habitat-trans_dic.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N16"/>
+  <dimension ref="A1:N14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -540,7 +540,7 @@
       <c r="B1" s="2" t="n"/>
       <c r="C1" s="3" t="inlineStr">
         <is>
-          <t>Hombre</t>
+          <t>Niña</t>
         </is>
       </c>
       <c r="D1" s="3" t="n"/>
@@ -548,7 +548,7 @@
       <c r="F1" s="3" t="n"/>
       <c r="G1" s="3" t="inlineStr">
         <is>
-          <t>Mujer</t>
+          <t>Niño</t>
         </is>
       </c>
       <c r="H1" s="3" t="n"/>
@@ -646,7 +646,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>&lt;2.000hab</t>
+          <t>&lt;10.000 hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -656,62 +656,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,52%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>8,6%</t>
+          <t>0,55%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>6,53%</t>
+          <t>1,71%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>16,39%</t>
+          <t>6,56%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,55%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>4,63%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,25%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>6,28%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,07%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>4,58%</t>
+          <t>2,69%</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>3,6%</t>
+          <t>1,47%</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>8,29%</t>
+          <t>6,41%</t>
         </is>
       </c>
     </row>
@@ -724,69 +724,69 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0; 6,36</t>
+          <t>0,0; 3,13</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 27,83</t>
+          <t>0,0; 2,74</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 21,71</t>
+          <t>0,52; 4,56</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 58,84</t>
+          <t>0,0; 29,74</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>0; 7,32</t>
+          <t>0,46; 4,59</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>0; 7,61</t>
+          <t>2,08; 8,8</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>0; 8,27</t>
+          <t>0,0; 4,54</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>0; 23,25</t>
+          <t>0,0; 19,27</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>0; 3,48</t>
+          <t>0,25; 2,67</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 15,87</t>
+          <t>1,34; 5,14</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 11,72</t>
+          <t>0,5; 3,27</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 39,88</t>
+          <t>1,44; 17,33</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2-10.000 hab</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -796,62 +796,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>1,88%</t>
+          <t>1,11%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>3,84%</t>
+          <t>1,93%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,5%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>3,39%</t>
+          <t>0,56%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>0,63%</t>
+          <t>1,87%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>0,65%</t>
+          <t>0,95%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>2,07%</t>
+          <t>2,02%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>8,76%</t>
+          <t>3,65%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>1,29%</t>
+          <t>1,5%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>2,32%</t>
+          <t>1,43%</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>0,99%</t>
+          <t>2,25%</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>5,74%</t>
+          <t>2,51%</t>
         </is>
       </c>
     </row>
@@ -864,69 +864,69 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0,56; 5,31</t>
+          <t>0,35; 3,04</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>1,4; 8,1</t>
+          <t>0,71; 4,02</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0; 1,3</t>
+          <t>1,21; 4,73</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 17,46</t>
+          <t>0,0; 3,73</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 3,15</t>
+          <t>0,73; 4,07</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 3,34</t>
+          <t>0,31; 2,83</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>0,64; 6,19</t>
+          <t>0,85; 4,24</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 37,66</t>
+          <t>0,71; 10,56</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>0,3; 2,88</t>
+          <t>0,74; 2,92</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>1,02; 4,7</t>
+          <t>0,68; 2,66</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>0,3; 2,87</t>
+          <t>1,32; 3,69</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 21,23</t>
+          <t>0,65; 7,23</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10-50.000 hab</t>
+          <t>&gt;50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -936,62 +936,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>1,87%</t>
+          <t>2,35%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,95%</t>
+          <t>0,46%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>2,02%</t>
+          <t>2,3%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>3,65%</t>
+          <t>7,86%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>1,11%</t>
+          <t>1,81%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>1,93%</t>
+          <t>1,67%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>2,5%</t>
+          <t>0,82%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>0,54%</t>
+          <t>3,01%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>1,5%</t>
+          <t>2,07%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>1,43%</t>
+          <t>1,1%</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>2,25%</t>
+          <t>1,53%</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>2,49%</t>
+          <t>5,21%</t>
         </is>
       </c>
     </row>
@@ -1004,69 +1004,69 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0,73; 4,08</t>
+          <t>0,89; 5,13</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0,31; 2,83</t>
+          <t>0,0; 2,29</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0,68; 4,14</t>
+          <t>0,89; 5,44</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0,76; 10,99</t>
+          <t>1,64; 20,91</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>0,35; 3,17</t>
+          <t>0,48; 4,21</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>0,76; 4,07</t>
+          <t>0,42; 4,15</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>1,21; 4,93</t>
+          <t>0,0; 2,56</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 3,16</t>
+          <t>0,0; 13,3</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>0,59; 2,98</t>
+          <t>1,11; 3,79</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>0,63; 2,69</t>
+          <t>0,43; 2,47</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>1,23; 3,69</t>
+          <t>0,61; 2,94</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>0,67; 6,81</t>
+          <t>1,49; 13,27</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>&gt;50.000hab</t>
+          <t>Capitales</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -1076,62 +1076,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>1,81%</t>
+          <t>2,81%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>1,67%</t>
+          <t>1,48%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>0,82%</t>
+          <t>1,66%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>3,13%</t>
+          <t>8,46%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>2,35%</t>
+          <t>1,19%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>0,46%</t>
+          <t>2,27%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>2,3%</t>
+          <t>2,74%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>8,14%</t>
+          <t>11,33%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>2,07%</t>
+          <t>2,03%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>1,1%</t>
+          <t>1,87%</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>1,53%</t>
+          <t>2,19%</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>5,43%</t>
+          <t>9,91%</t>
         </is>
       </c>
     </row>
@@ -1144,69 +1144,69 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0,48; 4,37</t>
+          <t>1,2; 5,23</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>0,42; 3,82</t>
+          <t>0,37; 3,64</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,88</t>
+          <t>0,43; 3,75</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 16,79</t>
+          <t>2,17; 19,9</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>0,92; 5,24</t>
+          <t>0,37; 3,32</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,34</t>
+          <t>1,01; 5,23</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>0,84; 5,35</t>
+          <t>1,13; 5,23</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>2,66; 22,45</t>
+          <t>4,14; 23,53</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>1,08; 3,8</t>
+          <t>1,02; 3,71</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>0,43; 2,43</t>
+          <t>0,95; 3,49</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>0,67; 3,15</t>
+          <t>1,13; 3,78</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>1,56; 12,68</t>
+          <t>5,21; 17,82</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Capitales</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1216,62 +1216,62 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>1,19%</t>
+          <t>1,8%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>2,27%</t>
+          <t>1,21%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>2,74%</t>
+          <t>2,06%</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>11,58%</t>
+          <t>5,7%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>2,81%</t>
+          <t>1,59%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>1,48%</t>
+          <t>2,24%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>1,66%</t>
+          <t>1,8%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>8,68%</t>
+          <t>5,59%</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>2,03%</t>
+          <t>1,7%</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>1,87%</t>
+          <t>1,74%</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>2,19%</t>
+          <t>1,93%</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
         <is>
-          <t>10,1%</t>
+          <t>5,64%</t>
         </is>
       </c>
     </row>
@@ -1284,214 +1284,74 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>0,37; 3,2</t>
+          <t>1,06; 2,79</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>1,05; 4,74</t>
+          <t>0,62; 2,12</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>1,18; 5,16</t>
+          <t>1,24; 3,07</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>4,21; 26,07</t>
+          <t>2,46; 11,0</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>1,19; 5,32</t>
+          <t>0,98; 2,54</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>0,37; 3,36</t>
+          <t>1,4; 3,38</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>0,42; 3,79</t>
+          <t>1,1; 2,81</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>2,27; 19,46</t>
+          <t>2,81; 9,32</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>0,99; 3,51</t>
+          <t>1,17; 2,41</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>0,94; 3,27</t>
+          <t>1,21; 2,36</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>1,15; 3,86</t>
+          <t>1,45; 2,59</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>5,19; 18,66</t>
+          <t>3,5; 8,49</t>
         </is>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B14" s="3" t="inlineStr">
-        <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C14" s="2" t="inlineStr">
-        <is>
-          <t>1,59%</t>
-        </is>
-      </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>2,24%</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>1,8%</t>
-        </is>
-      </c>
-      <c r="F14" s="2" t="inlineStr">
-        <is>
-          <t>5,69%</t>
-        </is>
-      </c>
-      <c r="G14" s="2" t="inlineStr">
-        <is>
-          <t>1,8%</t>
-        </is>
-      </c>
-      <c r="H14" s="2" t="inlineStr">
-        <is>
-          <t>1,21%</t>
-        </is>
-      </c>
-      <c r="I14" s="2" t="inlineStr">
-        <is>
-          <t>2,06%</t>
-        </is>
-      </c>
-      <c r="J14" s="2" t="inlineStr">
-        <is>
-          <t>5,79%</t>
-        </is>
-      </c>
-      <c r="K14" s="2" t="inlineStr">
-        <is>
-          <t>1,7%</t>
-        </is>
-      </c>
-      <c r="L14" s="2" t="inlineStr">
-        <is>
-          <t>1,74%</t>
-        </is>
-      </c>
-      <c r="M14" s="2" t="inlineStr">
-        <is>
-          <t>1,93%</t>
-        </is>
-      </c>
-      <c r="N14" s="2" t="inlineStr">
-        <is>
-          <t>5,73%</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n"/>
-      <c r="B15" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C15" s="2" t="inlineStr">
-        <is>
-          <t>0,9; 2,56</t>
-        </is>
-      </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>1,39; 3,45</t>
-        </is>
-      </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>1,11; 2,89</t>
-        </is>
-      </c>
-      <c r="F15" s="2" t="inlineStr">
-        <is>
-          <t>3,01; 9,88</t>
-        </is>
-      </c>
-      <c r="G15" s="2" t="inlineStr">
-        <is>
-          <t>1,03; 2,86</t>
-        </is>
-      </c>
-      <c r="H15" s="2" t="inlineStr">
-        <is>
-          <t>0,63; 2,0</t>
-        </is>
-      </c>
-      <c r="I15" s="2" t="inlineStr">
-        <is>
-          <t>1,26; 3,11</t>
-        </is>
-      </c>
-      <c r="J15" s="2" t="inlineStr">
-        <is>
-          <t>2,56; 10,42</t>
-        </is>
-      </c>
-      <c r="K15" s="2" t="inlineStr">
-        <is>
-          <t>1,18; 2,33</t>
-        </is>
-      </c>
-      <c r="L15" s="2" t="inlineStr">
-        <is>
-          <t>1,18; 2,45</t>
-        </is>
-      </c>
-      <c r="M15" s="2" t="inlineStr">
-        <is>
-          <t>1,42; 2,64</t>
-        </is>
-      </c>
-      <c r="N15" s="2" t="inlineStr">
-        <is>
-          <t>3,44; 8,56</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
+      <c r="A14" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
@@ -1501,7 +1361,6 @@
     <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="K1:N1"/>
-    <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
